--- a/_site/ibc.xlsx
+++ b/_site/ibc.xlsx
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="K324" sqref="K324"/>
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,6 +5746,34 @@
         <v>7.9799999999999992E-3</v>
       </c>
     </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B329" s="13">
+        <v>133086.45000000001</v>
+      </c>
+      <c r="C329">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D329" s="3">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B330" s="13">
+        <v>150484.88</v>
+      </c>
+      <c r="C330">
+        <v>13.7</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>
